--- a/archive/repo_data.xlsx
+++ b/archive/repo_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Job Goal\streamlit\archive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Job Goal\streamlit\github_data\archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD92323-CC64-44DD-A298-A9828339B372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CB8BD9-EDB0-4A85-AD72-972A3B5DF22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8618,11 +8618,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="43.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="101.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="50.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
